--- a/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_SiT5711.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_SiT5711.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\QUANTUM\Qantum Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4959E8F4-00EA-4E81-8EFB-78C0F7815823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94ED83-2CFD-49CB-A4C4-8D86735E5AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20976" windowHeight="10956" xr2:uid="{1AF5C26B-6275-4961-8237-A8811C773990}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AF5C26B-6275-4961-8237-A8811C773990}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_SiT5711" sheetId="1" r:id="rId1"/>
@@ -825,16 +825,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C04B88-5AF1-48BE-AADB-287F6296AAA2}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="6" width="19" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="4" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -874,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -894,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -914,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -934,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -954,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -974,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>121</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
